--- a/otmm_decimal/time_compare_state.xlsx
+++ b/otmm_decimal/time_compare_state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C411B4-0900-4666-9618-17B54EAC5936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62F7F50-B007-415F-A36C-16AE97D5DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6B34A1AE-571F-4A02-8490-45257AAE273A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{6B34A1AE-571F-4A02-8490-45257AAE273A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1171,6 +1171,892 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>状態数6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.4071180808749997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.922407323025002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.060371182739125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA8A-4E0B-AE55-6AF0A2E96B2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>状態数15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.904016637833301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.884412522072722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.16179057228572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA8A-4E0B-AE55-6AF0A2E96B2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="113230800"/>
+        <c:axId val="113221232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113230800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ数（個）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113221232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113221232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>処理時間（秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113230800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>状態数6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.5643393182941177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.423534904190475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.831181853428575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9587-4A34-986F-79B475F9330A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>状態数15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.029402354121494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.80661351706667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.75465625544643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9587-4A34-986F-79B475F9330A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="170934896"/>
+        <c:axId val="170935312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170934896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ数（個）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170935312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170935312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>処理時間（秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170934896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1251,6 +2137,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1755,6 +2721,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2326,6 +4298,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3046B164-4076-4DE4-B0D2-A943D4EBE8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEC80AF-505A-4535-82BB-5FD750890B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2633,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8CE8-73A5-4783-B1AF-F45C7B9BE22A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/otmm_decimal/time_compare_state.xlsx
+++ b/otmm_decimal/time_compare_state.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62F7F50-B007-415F-A36C-16AE97D5DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA3B0C-8852-47B4-8A9D-D25EE284943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{6B34A1AE-571F-4A02-8490-45257AAE273A}"/>
   </bookViews>
@@ -1561,7 +1561,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2004,7 +2004,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4671,7 +4671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4682,7 +4682,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
